--- a/data/Електропостачання промислових підприємств_Форма 44 ЕПП - 2020д.xlsx
+++ b/data/Електропостачання промислових підприємств_Форма 44 ЕПП - 2020д.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Розрахунок навантаження\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C7C00E-91CD-41C5-9201-2D539743CFF5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$I$85</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -398,8 +392,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,6 +510,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -577,7 +578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -663,41 +664,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -776,7 +780,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -811,7 +815,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -988,34 +992,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A73" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" style="26" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="33.77734375" style="29" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" style="26" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="33.7109375" style="29" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="26" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1028,32 +1032,32 @@
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
     </row>
-    <row r="2" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.5">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+      <c r="A4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
     </row>
     <row r="5" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
@@ -1066,18 +1070,18 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:13" ht="24.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:13" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -1090,20 +1094,20 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-    </row>
-    <row r="9" spans="1:13" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="1:13" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="16"/>
       <c r="C9" s="4"/>
@@ -1114,31 +1118,31 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-    </row>
-    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -1180,7 +1184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>1</v>
       </c>
@@ -1209,11 +1213,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="31" t="s">
         <v>80</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -1238,11 +1242,11 @@
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="31" t="s">
         <v>81</v>
       </c>
       <c r="C16" s="19" t="s">
@@ -1267,7 +1271,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>3</v>
       </c>
@@ -1296,7 +1300,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="22" t="s">
         <v>82</v>
@@ -1323,7 +1327,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="22" t="s">
         <v>82</v>
@@ -1350,7 +1354,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="22" t="s">
         <v>82</v>
@@ -1377,7 +1381,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="22" t="s">
         <v>82</v>
@@ -1404,7 +1408,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="22" t="s">
         <v>82</v>
@@ -1431,7 +1435,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="22" t="s">
         <v>82</v>
@@ -1458,7 +1462,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>4</v>
       </c>
@@ -1572,7 +1576,7 @@
       <c r="A28" s="2">
         <v>5</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1599,7 +1603,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1626,7 +1630,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1653,7 +1657,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1680,7 +1684,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2396,7 +2400,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>14</v>
       </c>
@@ -2425,7 +2429,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="24" t="s">
         <v>46</v>
@@ -2452,7 +2456,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>15</v>
       </c>
@@ -2481,7 +2485,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="25" t="s">
         <v>47</v>
@@ -2508,7 +2512,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>16</v>
       </c>
@@ -2537,7 +2541,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="25" t="s">
         <v>48</v>
@@ -2564,7 +2568,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>17</v>
       </c>
@@ -2593,7 +2597,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="25" t="s">
         <v>49</v>
@@ -2620,7 +2624,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>18</v>
       </c>
@@ -2649,7 +2653,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="24" t="s">
         <v>50</v>
@@ -2676,7 +2680,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>19</v>
       </c>
@@ -2705,7 +2709,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="25" t="s">
         <v>51</v>
@@ -2732,7 +2736,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>20</v>
       </c>
@@ -2761,7 +2765,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="25" t="s">
         <v>52</v>
@@ -2788,7 +2792,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>21</v>
       </c>
@@ -2817,7 +2821,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="25" t="s">
         <v>53</v>
@@ -2844,7 +2848,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>22</v>
       </c>
@@ -2873,7 +2877,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="22" t="s">
         <v>83</v>
@@ -2900,7 +2904,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="22" t="s">
         <v>83</v>
@@ -2927,7 +2931,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="20"/>
       <c r="C77" s="2"/>
@@ -2938,7 +2942,7 @@
       <c r="H77" s="28"/>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="20"/>
       <c r="C78" s="2"/>
@@ -2949,49 +2953,49 @@
       <c r="H78" s="28"/>
       <c r="I78" s="20"/>
     </row>
-    <row r="81" spans="1:9" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B81" s="17"/>
       <c r="D81" s="30"/>
       <c r="G81" s="30"/>
-      <c r="H81" s="38" t="s">
+      <c r="H81" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I81" s="38"/>
-    </row>
-    <row r="82" spans="1:9" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H82" s="39" t="s">
+      <c r="I81" s="39"/>
+    </row>
+    <row r="82" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H82" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I82" s="39"/>
+      <c r="I82" s="40"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="31" t="s">
+      <c r="A84" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="31" t="s">
+      <c r="A85" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="31"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -3023,6 +3027,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="35" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="34" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Електропостачання промислових підприємств_Форма 44 ЕПП - 2020д.xlsx
+++ b/data/Електропостачання промислових підприємств_Форма 44 ЕПП - 2020д.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$I$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$J$85</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="84">
   <si>
     <t>МІНІСТЕРСТВО ОСВІТИ І НАУКИ УКРАЇНИ</t>
   </si>
@@ -518,12 +518,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -578,7 +584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -668,6 +674,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -695,7 +710,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -992,7 +1013,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1003,10 +1024,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,48 +1039,51 @@
     <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="29" customWidth="1"/>
-    <col min="8" max="8" width="33.7109375" style="29" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="26" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="35.28515625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="33.7109375" style="29" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="26" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I1" s="15" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-    </row>
-    <row r="3" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A4" s="34" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+    </row>
+    <row r="3" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.4">
+      <c r="A4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-    </row>
-    <row r="5" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+    </row>
+    <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="27"/>
       <c r="C5" s="3"/>
@@ -1069,21 +1093,23 @@
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
-    </row>
-    <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="J5" s="27"/>
+    </row>
+    <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="1:13" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+    </row>
+    <row r="7" spans="1:14" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="16"/>
       <c r="C7" s="4"/>
@@ -1092,22 +1118,24 @@
       <c r="F7" s="12"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="I7" s="32"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-    </row>
-    <row r="9" spans="1:13" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+    </row>
+    <row r="9" spans="1:14" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="16"/>
       <c r="C9" s="4"/>
@@ -1116,35 +1144,38 @@
       <c r="F9" s="12"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="I9" s="32"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-    </row>
-    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="18"/>
       <c r="C12" s="6"/>
@@ -1153,9 +1184,10 @@
       <c r="F12" s="14"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="33"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
@@ -1183,8 +1215,11 @@
       <c r="I13" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="J13" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>1</v>
       </c>
@@ -1212,8 +1247,11 @@
       <c r="I14" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="J14" s="45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -1241,8 +1279,9 @@
       <c r="I15" s="20">
         <v>286</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="J15" s="46"/>
+    </row>
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -1270,8 +1309,9 @@
       <c r="I16" s="20">
         <v>286</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J16" s="46"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>3</v>
       </c>
@@ -1299,8 +1339,9 @@
       <c r="I17" s="20">
         <v>290</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J17" s="46"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="22" t="s">
         <v>82</v>
@@ -1326,8 +1367,9 @@
       <c r="I18" s="20">
         <v>294</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J18" s="46"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="22" t="s">
         <v>82</v>
@@ -1353,8 +1395,9 @@
       <c r="I19" s="20">
         <v>294</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J19" s="46"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="22" t="s">
         <v>82</v>
@@ -1380,8 +1423,9 @@
       <c r="I20" s="20">
         <v>294</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J20" s="46"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="22" t="s">
         <v>82</v>
@@ -1407,8 +1451,9 @@
       <c r="I21" s="20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J21" s="46"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="22" t="s">
         <v>82</v>
@@ -1434,8 +1479,9 @@
       <c r="I22" s="20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J22" s="46"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="22" t="s">
         <v>82</v>
@@ -1461,8 +1507,9 @@
       <c r="I23" s="20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J23" s="46"/>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>4</v>
       </c>
@@ -1490,8 +1537,9 @@
       <c r="I24" s="20">
         <v>290</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="46"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="20" t="s">
         <v>27</v>
@@ -1517,8 +1565,9 @@
       <c r="I25" s="20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="46"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="20" t="s">
         <v>27</v>
@@ -1544,8 +1593,9 @@
       <c r="I26" s="20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="46"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="20" t="s">
         <v>27</v>
@@ -1571,12 +1621,13 @@
       <c r="I27" s="20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="46"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>5</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1600,10 +1651,11 @@
       <c r="I28" s="20">
         <v>290</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="46"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1627,10 +1679,11 @@
       <c r="I29" s="20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="46"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1654,10 +1707,11 @@
       <c r="I30" s="20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="46"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1681,10 +1735,11 @@
       <c r="I31" s="20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="46"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1708,8 +1763,9 @@
       <c r="I32" s="20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="46"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>6</v>
       </c>
@@ -1737,8 +1793,9 @@
       <c r="I33" s="20">
         <v>286</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="46"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="20" t="s">
         <v>32</v>
@@ -1764,8 +1821,9 @@
       <c r="I34" s="20">
         <v>286</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="46"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="20" t="s">
         <v>32</v>
@@ -1791,8 +1849,9 @@
       <c r="I35" s="20">
         <v>286</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="46"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>7</v>
       </c>
@@ -1820,8 +1879,9 @@
       <c r="I36" s="20">
         <v>286</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="46"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="20" t="s">
         <v>32</v>
@@ -1847,8 +1907,9 @@
       <c r="I37" s="20">
         <v>286</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="46"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>8</v>
       </c>
@@ -1876,8 +1937,9 @@
       <c r="I38" s="20">
         <v>290</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="46"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="20" t="s">
         <v>34</v>
@@ -1903,8 +1965,9 @@
       <c r="I39" s="20">
         <v>298</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="46"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="20" t="s">
         <v>34</v>
@@ -1930,8 +1993,9 @@
       <c r="I40" s="20">
         <v>298</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="46"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>9</v>
       </c>
@@ -1959,8 +2023,9 @@
       <c r="I41" s="20">
         <v>286</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="46"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="20" t="s">
         <v>37</v>
@@ -1986,8 +2051,9 @@
       <c r="I42" s="20">
         <v>286</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="46"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="20" t="s">
         <v>37</v>
@@ -2013,8 +2079,9 @@
       <c r="I43" s="20">
         <v>286</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="46"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>10</v>
       </c>
@@ -2042,8 +2109,9 @@
       <c r="I44" s="20">
         <v>298</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="46"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="20" t="s">
         <v>40</v>
@@ -2069,8 +2137,9 @@
       <c r="I45" s="20">
         <v>398</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="46"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="20" t="s">
         <v>40</v>
@@ -2096,8 +2165,9 @@
       <c r="I46" s="20">
         <v>398</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="46"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>11</v>
       </c>
@@ -2125,8 +2195,9 @@
       <c r="I47" s="20">
         <v>298</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="46"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="20" t="s">
         <v>42</v>
@@ -2152,8 +2223,9 @@
       <c r="I48" s="20">
         <v>398</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="46"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="20" t="s">
         <v>42</v>
@@ -2179,8 +2251,9 @@
       <c r="I49" s="20">
         <v>398</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="46"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>12</v>
       </c>
@@ -2208,8 +2281,9 @@
       <c r="I50" s="20">
         <v>298</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="46"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="20" t="s">
         <v>34</v>
@@ -2235,8 +2309,9 @@
       <c r="I51" s="20">
         <v>298</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="46"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="20" t="s">
         <v>34</v>
@@ -2262,8 +2337,9 @@
       <c r="I52" s="20">
         <v>298</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="46"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="20" t="s">
         <v>34</v>
@@ -2289,8 +2365,9 @@
       <c r="I53" s="20">
         <v>298</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="46"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="20" t="s">
         <v>34</v>
@@ -2316,8 +2393,9 @@
       <c r="I54" s="20">
         <v>298</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="46"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>13</v>
       </c>
@@ -2345,8 +2423,9 @@
       <c r="I55" s="20">
         <v>286</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="46"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="20" t="s">
         <v>44</v>
@@ -2372,8 +2451,9 @@
       <c r="I56" s="20">
         <v>286</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="46"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="20" t="s">
         <v>44</v>
@@ -2399,8 +2479,9 @@
       <c r="I57" s="20">
         <v>286</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J57" s="46"/>
+    </row>
+    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>14</v>
       </c>
@@ -2428,8 +2509,9 @@
       <c r="I58" s="20">
         <v>298</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J58" s="46"/>
+    </row>
+    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="24" t="s">
         <v>46</v>
@@ -2455,8 +2537,9 @@
       <c r="I59" s="20">
         <v>298</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J59" s="46"/>
+    </row>
+    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>15</v>
       </c>
@@ -2484,8 +2567,9 @@
       <c r="I60" s="20">
         <v>298</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J60" s="46"/>
+    </row>
+    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="25" t="s">
         <v>47</v>
@@ -2511,8 +2595,9 @@
       <c r="I61" s="20">
         <v>298</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J61" s="46"/>
+    </row>
+    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>16</v>
       </c>
@@ -2540,8 +2625,9 @@
       <c r="I62" s="20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J62" s="46"/>
+    </row>
+    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="25" t="s">
         <v>48</v>
@@ -2567,8 +2653,9 @@
       <c r="I63" s="20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J63" s="46"/>
+    </row>
+    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>17</v>
       </c>
@@ -2596,8 +2683,9 @@
       <c r="I64" s="20">
         <v>286</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J64" s="46"/>
+    </row>
+    <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="25" t="s">
         <v>49</v>
@@ -2623,8 +2711,9 @@
       <c r="I65" s="20">
         <v>286</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J65" s="46"/>
+    </row>
+    <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>18</v>
       </c>
@@ -2652,8 +2741,9 @@
       <c r="I66" s="20">
         <v>298</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J66" s="46"/>
+    </row>
+    <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="24" t="s">
         <v>50</v>
@@ -2679,8 +2769,9 @@
       <c r="I67" s="20" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J67" s="46"/>
+    </row>
+    <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>19</v>
       </c>
@@ -2708,8 +2799,9 @@
       <c r="I68" s="20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J68" s="46"/>
+    </row>
+    <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="25" t="s">
         <v>51</v>
@@ -2735,8 +2827,9 @@
       <c r="I69" s="20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J69" s="46"/>
+    </row>
+    <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>20</v>
       </c>
@@ -2764,8 +2857,9 @@
       <c r="I70" s="20">
         <v>298</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J70" s="46"/>
+    </row>
+    <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="25" t="s">
         <v>52</v>
@@ -2791,8 +2885,9 @@
       <c r="I71" s="20" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J71" s="46"/>
+    </row>
+    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>21</v>
       </c>
@@ -2820,8 +2915,9 @@
       <c r="I72" s="20">
         <v>286</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J72" s="46"/>
+    </row>
+    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="25" t="s">
         <v>53</v>
@@ -2847,8 +2943,9 @@
       <c r="I73" s="20">
         <v>286</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J73" s="46"/>
+    </row>
+    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>22</v>
       </c>
@@ -2876,8 +2973,9 @@
       <c r="I74" s="20">
         <v>298</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J74" s="46"/>
+    </row>
+    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="22" t="s">
         <v>83</v>
@@ -2903,8 +3001,9 @@
       <c r="I75" s="20">
         <v>298</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J75" s="46"/>
+    </row>
+    <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="22" t="s">
         <v>83</v>
@@ -2930,8 +3029,9 @@
       <c r="I76" s="20">
         <v>298</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="J76" s="46"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="20"/>
       <c r="C77" s="2"/>
@@ -2940,9 +3040,10 @@
       <c r="F77" s="2"/>
       <c r="G77" s="28"/>
       <c r="H77" s="28"/>
-      <c r="I77" s="20"/>
-    </row>
-    <row r="78" spans="1:9" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="I77" s="28"/>
+      <c r="J77" s="20"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="20"/>
       <c r="C78" s="2"/>
@@ -2951,51 +3052,56 @@
       <c r="F78" s="2"/>
       <c r="G78" s="28"/>
       <c r="H78" s="28"/>
-      <c r="I78" s="20"/>
-    </row>
-    <row r="81" spans="1:9" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I78" s="28"/>
+      <c r="J78" s="20"/>
+    </row>
+    <row r="81" spans="1:10" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B81" s="17"/>
       <c r="D81" s="30"/>
       <c r="G81" s="30"/>
-      <c r="H81" s="39" t="s">
+      <c r="H81" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I81" s="39"/>
-    </row>
-    <row r="82" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H82" s="40" t="s">
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
+    </row>
+    <row r="82" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H82" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I82" s="40"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="32" t="s">
+      <c r="I82" s="43"/>
+      <c r="J82" s="43"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="32"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="32"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="32" t="s">
+      <c r="B84" s="35"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="35"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="32"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="35"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -3009,16 +3115,16 @@
     <protectedRange sqref="B72:B73" name="Диапазон2_7_2"/>
   </protectedRanges>
   <mergeCells count="10">
-    <mergeCell ref="A85:I85"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="A84:I84"/>
+    <mergeCell ref="A85:J85"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="A84:J84"/>
   </mergeCells>
   <conditionalFormatting sqref="B15">
     <cfRule type="duplicateValues" dxfId="1" priority="2" stopIfTrue="1"/>
@@ -3027,6 +3133,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="34" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="33" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Електропостачання промислових підприємств_Форма 44 ЕПП - 2020д.xlsx
+++ b/data/Електропостачання промислових підприємств_Форма 44 ЕПП - 2020д.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="85">
   <si>
     <t>МІНІСТЕРСТВО ОСВІТИ І НАУКИ УКРАЇНИ</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>Електропостачання промислових підприємств</t>
+  </si>
+  <si>
+    <t>Пропозиції щодо аудиторій</t>
   </si>
 </sst>
 </file>
@@ -683,6 +686,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -709,15 +721,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1027,7 +1030,7 @@
   <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,33 +1058,33 @@
       <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.4">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -1096,18 +1099,18 @@
       <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
     </row>
     <row r="7" spans="1:14" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -1122,18 +1125,18 @@
       <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
     </row>
     <row r="9" spans="1:14" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -1148,32 +1151,32 @@
       <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -1213,9 +1216,9 @@
         <v>17</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="35" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1247,7 +1250,7 @@
       <c r="I14" s="9">
         <v>9</v>
       </c>
-      <c r="J14" s="45">
+      <c r="J14" s="36">
         <v>10</v>
       </c>
     </row>
@@ -1279,7 +1282,7 @@
       <c r="I15" s="20">
         <v>286</v>
       </c>
-      <c r="J15" s="46"/>
+      <c r="J15" s="37"/>
     </row>
     <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1309,7 +1312,7 @@
       <c r="I16" s="20">
         <v>286</v>
       </c>
-      <c r="J16" s="46"/>
+      <c r="J16" s="37"/>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
@@ -1339,7 +1342,7 @@
       <c r="I17" s="20">
         <v>290</v>
       </c>
-      <c r="J17" s="46"/>
+      <c r="J17" s="37"/>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1367,7 +1370,7 @@
       <c r="I18" s="20">
         <v>294</v>
       </c>
-      <c r="J18" s="46"/>
+      <c r="J18" s="37"/>
     </row>
     <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
@@ -1395,7 +1398,7 @@
       <c r="I19" s="20">
         <v>294</v>
       </c>
-      <c r="J19" s="46"/>
+      <c r="J19" s="37"/>
     </row>
     <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
@@ -1423,7 +1426,7 @@
       <c r="I20" s="20">
         <v>294</v>
       </c>
-      <c r="J20" s="46"/>
+      <c r="J20" s="37"/>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -1451,7 +1454,7 @@
       <c r="I21" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="46"/>
+      <c r="J21" s="37"/>
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -1479,7 +1482,7 @@
       <c r="I22" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="J22" s="46"/>
+      <c r="J22" s="37"/>
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -1507,7 +1510,7 @@
       <c r="I23" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="J23" s="46"/>
+      <c r="J23" s="37"/>
     </row>
     <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -1537,7 +1540,7 @@
       <c r="I24" s="20">
         <v>290</v>
       </c>
-      <c r="J24" s="46"/>
+      <c r="J24" s="37"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
@@ -1565,7 +1568,7 @@
       <c r="I25" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="J25" s="46"/>
+      <c r="J25" s="37"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
@@ -1593,7 +1596,7 @@
       <c r="I26" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="J26" s="46"/>
+      <c r="J26" s="37"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
@@ -1621,7 +1624,7 @@
       <c r="I27" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="46"/>
+      <c r="J27" s="37"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -1651,7 +1654,7 @@
       <c r="I28" s="20">
         <v>290</v>
       </c>
-      <c r="J28" s="46"/>
+      <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
@@ -1679,7 +1682,7 @@
       <c r="I29" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="J29" s="46"/>
+      <c r="J29" s="37"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
@@ -1707,7 +1710,7 @@
       <c r="I30" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="J30" s="46"/>
+      <c r="J30" s="37"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
@@ -1735,7 +1738,7 @@
       <c r="I31" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="J31" s="46"/>
+      <c r="J31" s="37"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
@@ -1763,7 +1766,7 @@
       <c r="I32" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="J32" s="46"/>
+      <c r="J32" s="37"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -1793,7 +1796,7 @@
       <c r="I33" s="20">
         <v>286</v>
       </c>
-      <c r="J33" s="46"/>
+      <c r="J33" s="37"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
@@ -1821,7 +1824,7 @@
       <c r="I34" s="20">
         <v>286</v>
       </c>
-      <c r="J34" s="46"/>
+      <c r="J34" s="37"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
@@ -1849,7 +1852,7 @@
       <c r="I35" s="20">
         <v>286</v>
       </c>
-      <c r="J35" s="46"/>
+      <c r="J35" s="37"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
@@ -1879,7 +1882,7 @@
       <c r="I36" s="20">
         <v>286</v>
       </c>
-      <c r="J36" s="46"/>
+      <c r="J36" s="37"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
@@ -1907,7 +1910,7 @@
       <c r="I37" s="20">
         <v>286</v>
       </c>
-      <c r="J37" s="46"/>
+      <c r="J37" s="37"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
@@ -1937,7 +1940,7 @@
       <c r="I38" s="20">
         <v>290</v>
       </c>
-      <c r="J38" s="46"/>
+      <c r="J38" s="37"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
@@ -1965,7 +1968,7 @@
       <c r="I39" s="20">
         <v>298</v>
       </c>
-      <c r="J39" s="46"/>
+      <c r="J39" s="37"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
@@ -1993,7 +1996,7 @@
       <c r="I40" s="20">
         <v>298</v>
       </c>
-      <c r="J40" s="46"/>
+      <c r="J40" s="37"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
@@ -2023,7 +2026,7 @@
       <c r="I41" s="20">
         <v>286</v>
       </c>
-      <c r="J41" s="46"/>
+      <c r="J41" s="37"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
@@ -2051,7 +2054,7 @@
       <c r="I42" s="20">
         <v>286</v>
       </c>
-      <c r="J42" s="46"/>
+      <c r="J42" s="37"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
@@ -2079,7 +2082,7 @@
       <c r="I43" s="20">
         <v>286</v>
       </c>
-      <c r="J43" s="46"/>
+      <c r="J43" s="37"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
@@ -2109,7 +2112,7 @@
       <c r="I44" s="20">
         <v>298</v>
       </c>
-      <c r="J44" s="46"/>
+      <c r="J44" s="37"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
@@ -2137,7 +2140,7 @@
       <c r="I45" s="20">
         <v>398</v>
       </c>
-      <c r="J45" s="46"/>
+      <c r="J45" s="37"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
@@ -2165,7 +2168,7 @@
       <c r="I46" s="20">
         <v>398</v>
       </c>
-      <c r="J46" s="46"/>
+      <c r="J46" s="37"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
@@ -2195,7 +2198,7 @@
       <c r="I47" s="20">
         <v>298</v>
       </c>
-      <c r="J47" s="46"/>
+      <c r="J47" s="37"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
@@ -2223,7 +2226,7 @@
       <c r="I48" s="20">
         <v>398</v>
       </c>
-      <c r="J48" s="46"/>
+      <c r="J48" s="37"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
@@ -2251,7 +2254,7 @@
       <c r="I49" s="20">
         <v>398</v>
       </c>
-      <c r="J49" s="46"/>
+      <c r="J49" s="37"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -2281,7 +2284,7 @@
       <c r="I50" s="20">
         <v>298</v>
       </c>
-      <c r="J50" s="46"/>
+      <c r="J50" s="37"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
@@ -2309,7 +2312,7 @@
       <c r="I51" s="20">
         <v>298</v>
       </c>
-      <c r="J51" s="46"/>
+      <c r="J51" s="37"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
@@ -2337,7 +2340,7 @@
       <c r="I52" s="20">
         <v>298</v>
       </c>
-      <c r="J52" s="46"/>
+      <c r="J52" s="37"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
@@ -2365,7 +2368,7 @@
       <c r="I53" s="20">
         <v>298</v>
       </c>
-      <c r="J53" s="46"/>
+      <c r="J53" s="37"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
@@ -2393,7 +2396,7 @@
       <c r="I54" s="20">
         <v>298</v>
       </c>
-      <c r="J54" s="46"/>
+      <c r="J54" s="37"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -2423,7 +2426,7 @@
       <c r="I55" s="20">
         <v>286</v>
       </c>
-      <c r="J55" s="46"/>
+      <c r="J55" s="37"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
@@ -2451,7 +2454,7 @@
       <c r="I56" s="20">
         <v>286</v>
       </c>
-      <c r="J56" s="46"/>
+      <c r="J56" s="37"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
@@ -2479,7 +2482,7 @@
       <c r="I57" s="20">
         <v>286</v>
       </c>
-      <c r="J57" s="46"/>
+      <c r="J57" s="37"/>
     </row>
     <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
@@ -2509,7 +2512,7 @@
       <c r="I58" s="20">
         <v>298</v>
       </c>
-      <c r="J58" s="46"/>
+      <c r="J58" s="37"/>
     </row>
     <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
@@ -2537,7 +2540,7 @@
       <c r="I59" s="20">
         <v>298</v>
       </c>
-      <c r="J59" s="46"/>
+      <c r="J59" s="37"/>
     </row>
     <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
@@ -2567,7 +2570,7 @@
       <c r="I60" s="20">
         <v>298</v>
       </c>
-      <c r="J60" s="46"/>
+      <c r="J60" s="37"/>
     </row>
     <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
@@ -2595,7 +2598,7 @@
       <c r="I61" s="20">
         <v>298</v>
       </c>
-      <c r="J61" s="46"/>
+      <c r="J61" s="37"/>
     </row>
     <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -2625,7 +2628,7 @@
       <c r="I62" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="J62" s="46"/>
+      <c r="J62" s="37"/>
     </row>
     <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
@@ -2653,7 +2656,7 @@
       <c r="I63" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="J63" s="46"/>
+      <c r="J63" s="37"/>
     </row>
     <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
@@ -2683,7 +2686,7 @@
       <c r="I64" s="20">
         <v>286</v>
       </c>
-      <c r="J64" s="46"/>
+      <c r="J64" s="37"/>
     </row>
     <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
@@ -2711,7 +2714,7 @@
       <c r="I65" s="20">
         <v>286</v>
       </c>
-      <c r="J65" s="46"/>
+      <c r="J65" s="37"/>
     </row>
     <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
@@ -2741,7 +2744,7 @@
       <c r="I66" s="20">
         <v>298</v>
       </c>
-      <c r="J66" s="46"/>
+      <c r="J66" s="37"/>
     </row>
     <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
@@ -2769,7 +2772,7 @@
       <c r="I67" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J67" s="46"/>
+      <c r="J67" s="37"/>
     </row>
     <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
@@ -2799,7 +2802,7 @@
       <c r="I68" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="J68" s="46"/>
+      <c r="J68" s="37"/>
     </row>
     <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
@@ -2827,7 +2830,7 @@
       <c r="I69" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="J69" s="46"/>
+      <c r="J69" s="37"/>
     </row>
     <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
@@ -2857,7 +2860,7 @@
       <c r="I70" s="20">
         <v>298</v>
       </c>
-      <c r="J70" s="46"/>
+      <c r="J70" s="37"/>
     </row>
     <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
@@ -2885,7 +2888,7 @@
       <c r="I71" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J71" s="46"/>
+      <c r="J71" s="37"/>
     </row>
     <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
@@ -2915,7 +2918,7 @@
       <c r="I72" s="20">
         <v>286</v>
       </c>
-      <c r="J72" s="46"/>
+      <c r="J72" s="37"/>
     </row>
     <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
@@ -2943,7 +2946,7 @@
       <c r="I73" s="20">
         <v>286</v>
       </c>
-      <c r="J73" s="46"/>
+      <c r="J73" s="37"/>
     </row>
     <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -2973,7 +2976,7 @@
       <c r="I74" s="20">
         <v>298</v>
       </c>
-      <c r="J74" s="46"/>
+      <c r="J74" s="37"/>
     </row>
     <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
@@ -3001,7 +3004,7 @@
       <c r="I75" s="20">
         <v>298</v>
       </c>
-      <c r="J75" s="46"/>
+      <c r="J75" s="37"/>
     </row>
     <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
@@ -3029,7 +3032,7 @@
       <c r="I76" s="20">
         <v>298</v>
       </c>
-      <c r="J76" s="46"/>
+      <c r="J76" s="37"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
@@ -3062,46 +3065,46 @@
       <c r="B81" s="17"/>
       <c r="D81" s="30"/>
       <c r="G81" s="30"/>
-      <c r="H81" s="42" t="s">
+      <c r="H81" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I81" s="42"/>
-      <c r="J81" s="42"/>
+      <c r="I81" s="45"/>
+      <c r="J81" s="45"/>
     </row>
     <row r="82" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H82" s="43" t="s">
+      <c r="H82" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I82" s="43"/>
-      <c r="J82" s="43"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="46"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="35" t="s">
+      <c r="A84" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="35"/>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="35"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="38"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="35" t="s">
+      <c r="A85" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B85" s="35"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="35"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
     </row>
   </sheetData>
   <protectedRanges>
